--- a/sentence_generation/generatore_frasi_casuali_MF.xlsx
+++ b/sentence_generation/generatore_frasi_casuali_MF.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">old</t>
   </si>
   <si>
-    <t xml:space="preserve">awsome</t>
+    <t xml:space="preserve">awesome</t>
   </si>
   <si>
     <t xml:space="preserve">night</t>
@@ -564,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V11" activeCellId="0" sqref="V11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK27" activeCellId="0" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,29 +573,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="26.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="27.63"/>
@@ -710,26 +710,26 @@
       </c>
       <c r="K2" s="0" t="str">
         <f aca="false">INDEX(D$2:D$29,RANDBETWEEN(1,COUNTA(D$2:D$29)),1)</f>
-        <v>village</v>
+        <v>girl</v>
       </c>
       <c r="L2" s="0" t="str">
         <f aca="false">INDEX(G$2:G$5,RANDBETWEEN(1,COUNTA(G$2:G$5)),1)</f>
-        <v>is</v>
+        <v>was</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29))*1)</f>
-        <v>pigs</v>
+        <v>doctors</v>
       </c>
       <c r="O2" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I2:I29)),1)</f>
-        <v>dirty</v>
+        <v>awful</v>
       </c>
       <c r="P2" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O2," ",K2," ",M2," ",L2," ",N2,$A$2,$B$2)</f>
-        <v>"dirty village the is pigs",</v>
+        <v>"awful girl the was doctors",</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="S2" s="0" t="s">
@@ -737,7 +737,7 @@
       </c>
       <c r="T2" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I2:I29)),1)</f>
-        <v>light</v>
+        <v>cold</v>
       </c>
       <c r="U2" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -753,11 +753,11 @@
       </c>
       <c r="X2" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T2," ", W2, " ",S2," ",U2," ",V2,$A$2,$B$2)</f>
-        <v>"light green a is girl",</v>
+        <v>"cold green a is girl",</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I2:I29)),1)</f>
-        <v>ugly</v>
+        <v>quiet</v>
       </c>
       <c r="AB2" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -776,7 +776,7 @@
       </c>
       <c r="AF2" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB2," ", AE2, " ",AA2," ",AC2," ",AD2,$A$2,$B$2)</f>
-        <v>"hats the ugly are stupid",</v>
+        <v>"hats the quiet are stupid",</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +828,7 @@
       </c>
       <c r="T3" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I3:I30)),1)</f>
-        <v>nice</v>
+        <v>fat</v>
       </c>
       <c r="U3" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -844,7 +844,7 @@
       </c>
       <c r="X3" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T3," ", W3, " ",S3," ",U3," ",V3,$A$2,$B$2)</f>
-        <v>"nice weak a is room",</v>
+        <v>"fat weak a is room",</v>
       </c>
       <c r="AA3" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I3:I30)),1)</f>
@@ -904,18 +904,18 @@
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I4:I31)),1)</f>
-        <v>red</v>
+        <v>quiet</v>
       </c>
       <c r="P4" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O4," ",K4," ",M4," ",L4," ",N4,$A$2,$B$2)</f>
-        <v>"red dog the were doctors",</v>
+        <v>"quiet dog the were doctors",</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I4:I31)),1)</f>
-        <v>rude</v>
+        <v>orange</v>
       </c>
       <c r="U4" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -931,11 +931,11 @@
       </c>
       <c r="X4" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T4," ", W4, " ",S4," ",U4," ",V4,$A$2,$B$2)</f>
-        <v>"rude old a was doctor",</v>
+        <v>"orange old a was doctor",</v>
       </c>
       <c r="AA4" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I4:I31)),1)</f>
-        <v>rude</v>
+        <v>quiet</v>
       </c>
       <c r="AB4" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -954,7 +954,7 @@
       </c>
       <c r="AF4" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB4," ", AE4, " ",AA4," ",AC4," ",AD4,$A$2,$B$2)</f>
-        <v>"cows the rude were dark",</v>
+        <v>"cows the quiet were dark",</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,18 +991,18 @@
       </c>
       <c r="O5" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I5:I32)),1)</f>
-        <v>hot</v>
+        <v>orange</v>
       </c>
       <c r="P5" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O5," ",K5," ",M5," ",L5," ",N5,$A$2,$B$2)</f>
-        <v>"huge hat the was villages",</v>
+        <v>"orange town the were horses",</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I5:I32)),1)</f>
-        <v>red</v>
+        <v>cold</v>
       </c>
       <c r="U5" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="X5" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T5," ", W5, " ",S5," ",U5," ",V5,$A$2,$B$2)</f>
-        <v>"red weak a is village",</v>
+        <v>"cold weak a is village",</v>
       </c>
       <c r="AA5" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I5:I32)),1)</f>
-        <v>rude</v>
+        <v>light</v>
       </c>
       <c r="AB5" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AF5" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB5," ", AE5, " ",AA5," ",AC5," ",AD5,$A$2,$B$2)</f>
-        <v>"teachers the rude are vicious",</v>
+        <v>"teachers the light are vicious",</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,18 +1075,18 @@
       </c>
       <c r="O6" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I6:I33)),1)</f>
-        <v>quiet</v>
+        <v>orange</v>
       </c>
       <c r="P6" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O6," ",K6," ",M6," ",L6," ",N6,$A$2,$B$2)</f>
-        <v>"awful night the were rooms",</v>
+        <v>"orange night the is hats",</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I6:I33)),1)</f>
-        <v>white</v>
+        <v>cold</v>
       </c>
       <c r="U6" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="X6" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T6," ", W6, " ",S6," ",U6," ",V6,$A$2,$B$2)</f>
-        <v>"white old a is street",</v>
+        <v>"cold old a is street",</v>
       </c>
       <c r="AA6" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I6:I33)),1)</f>
-        <v>odorous</v>
+        <v>awful</v>
       </c>
       <c r="AB6" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="AF6" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB6," ", AE6, " ",AA6," ",AC6," ",AD6,$A$2,$B$2)</f>
-        <v>"hats the odorous were disgusting",</v>
+        <v>"hats the awful were disgusting",</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,18 +1159,18 @@
       </c>
       <c r="O7" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I7:I34)),1)</f>
-        <v>repulsive</v>
+        <v>ugly</v>
       </c>
       <c r="P7" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O7," ",K7," ",M7," ",L7," ",N7,$A$2,$B$2)</f>
-        <v>"repulsive doctor the are planes",</v>
+        <v>"ugly doctor the are planes",</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T7" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I7:I34)),1)</f>
-        <v>awsome</v>
+        <v>light</v>
       </c>
       <c r="U7" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="X7" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T7," ", W7, " ",S7," ",U7," ",V7,$A$2,$B$2)</f>
-        <v>"awsome happy a is cat",</v>
+        <v>"light happy a is cat",</v>
       </c>
       <c r="AA7" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I7:I34)),1)</f>
-        <v>huge</v>
+        <v>red</v>
       </c>
       <c r="AB7" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="AF7" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB7," ", AE7, " ",AA7," ",AC7," ",AD7,$A$2,$B$2)</f>
-        <v>"streets the huge were disgusting",</v>
+        <v>"streets the red were disgusting",</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,18 +1243,18 @@
       </c>
       <c r="O8" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I8:I35)),1)</f>
-        <v>nice</v>
+        <v>light</v>
       </c>
       <c r="P8" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O8," ",K8," ",M8," ",L8," ",N8,$A$2,$B$2)</f>
-        <v>"nice rabbit the are rabbits",</v>
+        <v>"light rabbit the are rabbits",</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I8:I35)),1)</f>
-        <v>lovely</v>
+        <v>awful</v>
       </c>
       <c r="U8" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="X8" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T8," ", W8, " ",S8," ",U8," ",V8,$A$2,$B$2)</f>
-        <v>"lovely dark a is street",</v>
+        <v>"awful dark a is street",</v>
       </c>
       <c r="AA8" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I8:I35)),1)</f>
-        <v>joyous</v>
+        <v>awesome</v>
       </c>
       <c r="AB8" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="AF8" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB8," ", AE8, " ",AA8," ",AC8," ",AD8,$A$2,$B$2)</f>
-        <v>"streets the joyous are miserable",</v>
+        <v>"streets the awesome are miserable",</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,18 +1327,18 @@
       </c>
       <c r="O9" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I9:I36)),1)</f>
-        <v>empty</v>
+        <v>red</v>
       </c>
       <c r="P9" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O9," ",K9," ",M9," ",L9," ",N9,$A$2,$B$2)</f>
-        <v>"empty teacher the were corridors",</v>
+        <v>"red teacher the were corridors",</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T9" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I9:I36)),1)</f>
-        <v>crowded</v>
+        <v>rude</v>
       </c>
       <c r="U9" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1354,11 +1354,11 @@
       </c>
       <c r="X9" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T9," ", W9, " ",S9," ",U9," ",V9,$A$2,$B$2)</f>
-        <v>"crowded old a is bird",</v>
+        <v>"rude old a is bird",</v>
       </c>
       <c r="AA9" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I9:I36)),1)</f>
-        <v>nice</v>
+        <v>white</v>
       </c>
       <c r="AB9" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AF9" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB9," ", AE9, " ",AA9," ",AC9," ",AD9,$A$2,$B$2)</f>
-        <v>"horses the nice are stupid",</v>
+        <v>"horses the white are stupid",</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="O10" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I10:I37)),1)</f>
-        <v>orange</v>
+        <v>thin</v>
       </c>
       <c r="P10" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O10," ",K10," ",M10," ",L10," ",N10,$A$2,$B$2)</f>
-        <v>"orange hotel the are hospitals",</v>
+        <v>"thin hotel the are hospitals",</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I10:I37)),1)</f>
-        <v>repulsive</v>
+        <v>awesome</v>
       </c>
       <c r="U10" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1438,11 +1438,11 @@
       </c>
       <c r="X10" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T10," ", W10, " ",S10," ",U10," ",V10,$A$2,$B$2)</f>
-        <v>"repulsive smelly a was town",</v>
+        <v>"awesome smelly a was town",</v>
       </c>
       <c r="AA10" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I10:I37)),1)</f>
-        <v>brown</v>
+        <v>strong</v>
       </c>
       <c r="AB10" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="AF10" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB10," ", AE10, " ",AA10," ",AC10," ",AD10,$A$2,$B$2)</f>
-        <v>"girls the brown are old",</v>
+        <v>"girls the strong are old",</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="T11" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I11:I38)),1)</f>
-        <v>yellow</v>
+        <v>ugly</v>
       </c>
       <c r="U11" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1522,11 +1522,11 @@
       </c>
       <c r="X11" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T11," ", W11, " ",S11," ",U11," ",V11,$A$2,$B$2)</f>
-        <v>"yellow miserable a was statue",</v>
+        <v>"ugly miserable a was statue",</v>
       </c>
       <c r="AA11" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I11:I38)),1)</f>
-        <v>awful</v>
+        <v>white</v>
       </c>
       <c r="AB11" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AF11" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB11," ", AE11, " ",AA11," ",AC11," ",AD11,$A$2,$B$2)</f>
-        <v>"towns the awful were kind",</v>
+        <v>"towns the white were kind",</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,18 +1579,18 @@
       </c>
       <c r="O12" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I12:I39)),1)</f>
-        <v>hot</v>
+        <v>orange</v>
       </c>
       <c r="P12" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O12," ",K12," ",M12," ",L12," ",N12,$A$2,$B$2)</f>
-        <v>"hot hat the is corridors",</v>
+        <v>"orange hat the is corridors",</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I12:I39)),1)</f>
-        <v>cold</v>
+        <v>ugly</v>
       </c>
       <c r="U12" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="X12" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T12," ", W12, " ",S12," ",U12," ",V12,$A$2,$B$2)</f>
-        <v>"cold big a is horse",</v>
+        <v>"ugly big a is horse",</v>
       </c>
       <c r="AA12" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I12:I39)),1)</f>
-        <v>crowded</v>
+        <v>quiet</v>
       </c>
       <c r="AB12" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="AF12" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB12," ", AE12, " ",AA12," ",AC12," ",AD12,$A$2,$B$2)</f>
-        <v>"roooms the crowded were weak",</v>
+        <v>"roooms the quiet were weak",</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,18 +1663,18 @@
       </c>
       <c r="O13" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I13:I40)),1)</f>
-        <v>orange</v>
+        <v>huge</v>
       </c>
       <c r="P13" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O13," ",K13," ",M13," ",L13," ",N13,$A$2,$B$2)</f>
-        <v>"orange cow the are coats",</v>
+        <v>"huge cow the are coats",</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T13" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I13:I40)),1)</f>
-        <v>light</v>
+        <v>rude</v>
       </c>
       <c r="U13" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="X13" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T13," ", W13, " ",S13," ",U13," ",V13,$A$2,$B$2)</f>
-        <v>"light shiny a is table",</v>
+        <v>"rude shiny a is table",</v>
       </c>
       <c r="AA13" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I13:I40)),1)</f>
-        <v>red</v>
+        <v>awful</v>
       </c>
       <c r="AB13" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="AF13" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB13," ", AE13, " ",AA13," ",AC13," ",AD13,$A$2,$B$2)</f>
-        <v>"nights the red were tired",</v>
+        <v>"nights the awful were tired",</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,18 +1747,18 @@
       </c>
       <c r="O14" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I14:I41)),1)</f>
-        <v>orange</v>
+        <v>huge</v>
       </c>
       <c r="P14" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O14," ",K14," ",M14," ",L14," ",N14,$A$2,$B$2)</f>
-        <v>"orange village the was doctors",</v>
+        <v>"huge village the was doctors",</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T14" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I14:I41)),1)</f>
-        <v>white</v>
+        <v>repulsive</v>
       </c>
       <c r="U14" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1774,11 +1774,11 @@
       </c>
       <c r="X14" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T14," ", W14, " ",S14," ",U14," ",V14,$A$2,$B$2)</f>
-        <v>"white happy a was plane",</v>
+        <v>"repulsive happy a was plane",</v>
       </c>
       <c r="AA14" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I14:I41)),1)</f>
-        <v>thin</v>
+        <v>strong</v>
       </c>
       <c r="AB14" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="AF14" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB14," ", AE14, " ",AA14," ",AC14," ",AD14,$A$2,$B$2)</f>
-        <v>"rabbits the thin are disgusting",</v>
+        <v>"rabbits the strong are disgusting",</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,18 +1831,18 @@
       </c>
       <c r="O15" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I15:I42)),1)</f>
-        <v>crowded</v>
+        <v>red</v>
       </c>
       <c r="P15" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O15," ",K15," ",M15," ",L15," ",N15,$A$2,$B$2)</f>
-        <v>"crowded dog the were bags",</v>
+        <v>"red dog the were bags",</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T15" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I15:I42)),1)</f>
-        <v>strong</v>
+        <v>joyous</v>
       </c>
       <c r="U15" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1858,11 +1858,11 @@
       </c>
       <c r="X15" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T15," ", W15, " ",S15," ",U15," ",V15,$A$2,$B$2)</f>
-        <v>"strong shiny a was rooom",</v>
+        <v>"joyous shiny a was rooom",</v>
       </c>
       <c r="AA15" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I15:I42)),1)</f>
-        <v>lovely</v>
+        <v>quiet</v>
       </c>
       <c r="AB15" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AF15" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB15," ", AE15, " ",AA15," ",AC15," ",AD15,$A$2,$B$2)</f>
-        <v>"boys the lovely were rosy",</v>
+        <v>"boys the quiet were rosy",</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,18 +1915,18 @@
       </c>
       <c r="O16" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I16:I43)),1)</f>
-        <v>nice</v>
+        <v>repulsive</v>
       </c>
       <c r="P16" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O16," ",K16," ",M16," ",L16," ",N16,$A$2,$B$2)</f>
-        <v>"nice boy the was pigs",</v>
+        <v>"repulsive boy the was pigs",</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T16" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I16:I43)),1)</f>
-        <v>hot</v>
+        <v>joyous</v>
       </c>
       <c r="U16" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="X16" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T16," ", W16, " ",S16," ",U16," ",V16,$A$2,$B$2)</f>
-        <v>"hot dark a was table",</v>
+        <v>"joyous dark a was table",</v>
       </c>
       <c r="AA16" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I16:I43)),1)</f>
-        <v>joyous</v>
+        <v>nice</v>
       </c>
       <c r="AB16" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="AF16" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB16," ", AE16, " ",AA16," ",AC16," ",AD16,$A$2,$B$2)</f>
-        <v>"nights the joyous are kind",</v>
+        <v>"nights the nice are kind",</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,18 +1999,18 @@
       </c>
       <c r="O17" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I17:I44)),1)</f>
-        <v>hot</v>
+        <v>quiet</v>
       </c>
       <c r="P17" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O17," ",K17," ",M17," ",L17," ",N17,$A$2,$B$2)</f>
-        <v>"hot bag the are nights",</v>
+        <v>"quiet bag the are nights",</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T17" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I17:I44)),1)</f>
-        <v>lovely</v>
+        <v>ugly</v>
       </c>
       <c r="U17" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2026,11 +2026,11 @@
       </c>
       <c r="X17" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T17," ", W17, " ",S17," ",U17," ",V17,$A$2,$B$2)</f>
-        <v>"lovely smelly a was coat",</v>
+        <v>"ugly smelly a was coat",</v>
       </c>
       <c r="AA17" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I17:I44)),1)</f>
-        <v>purple</v>
+        <v>light</v>
       </c>
       <c r="AB17" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="AF17" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB17," ", AE17, " ",AA17," ",AC17," ",AD17,$A$2,$B$2)</f>
-        <v>"cats the purple are green",</v>
+        <v>"cats the light are green",</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,18 +2083,18 @@
       </c>
       <c r="O18" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I18:I45)),1)</f>
-        <v>small</v>
+        <v>odorous</v>
       </c>
       <c r="P18" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O18," ",K18," ",M18," ",L18," ",N18,$A$2,$B$2)</f>
-        <v>"small pig the was bags",</v>
+        <v>"odorous pig the was bags",</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T18" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I18:I45)),1)</f>
-        <v>small</v>
+        <v>orange</v>
       </c>
       <c r="U18" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="X18" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T18," ", W18, " ",S18," ",U18," ",V18,$A$2,$B$2)</f>
-        <v>"small boring a is rooom",</v>
+        <v>"orange boring a is rooom",</v>
       </c>
       <c r="AA18" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I18:I45)),1)</f>
-        <v>odorous</v>
+        <v>red</v>
       </c>
       <c r="AB18" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="AF18" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB18," ", AE18, " ",AA18," ",AC18," ",AD18,$A$2,$B$2)</f>
-        <v>"planes the odorous are sad",</v>
+        <v>"planes the red are sad",</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,18 +2167,18 @@
       </c>
       <c r="O19" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I19:I46)),1)</f>
-        <v>repulsive</v>
+        <v>light</v>
       </c>
       <c r="P19" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O19," ",K19," ",M19," ",L19," ",N19,$A$2,$B$2)</f>
-        <v>"repulsive night the was streets",</v>
+        <v>"light night the was streets",</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T19" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I19:I46)),1)</f>
-        <v>red</v>
+        <v>strong</v>
       </c>
       <c r="U19" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="X19" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T19," ", W19, " ",S19," ",U19," ",V19,$A$2,$B$2)</f>
-        <v>"red angry a is bag",</v>
+        <v>"strong angry a is bag",</v>
       </c>
       <c r="AA19" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I19:I46)),1)</f>
-        <v>quiet</v>
+        <v>joyous</v>
       </c>
       <c r="AB19" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="AF19" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB19," ", AE19, " ",AA19," ",AC19," ",AD19,$A$2,$B$2)</f>
-        <v>"pigs the quiet were attractive",</v>
+        <v>"pigs the joyous were attractive",</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,18 +2251,18 @@
       </c>
       <c r="O20" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I20:I47)),1)</f>
-        <v>huge</v>
+        <v>lovely</v>
       </c>
       <c r="P20" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O20," ",K20," ",M20," ",L20," ",N20,$A$2,$B$2)</f>
-        <v>"huge boy the are pigs",</v>
+        <v>"lovely boy the are pigs",</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T20" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I20:I47)),1)</f>
-        <v>quiet</v>
+        <v>awesome</v>
       </c>
       <c r="U20" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="X20" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T20," ", W20, " ",S20," ",U20," ",V20,$A$2,$B$2)</f>
-        <v>"quiet weak a is cow",</v>
+        <v>"awesome weak a is cow",</v>
       </c>
       <c r="AA20" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I20:I47)),1)</f>
-        <v>strong</v>
+        <v>rude</v>
       </c>
       <c r="AB20" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="AF20" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB20," ", AE20, " ",AA20," ",AC20," ",AD20,$A$2,$B$2)</f>
-        <v>"coats the strong are attractive",</v>
+        <v>"coats the rude are attractive",</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,18 +2335,18 @@
       </c>
       <c r="O21" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I21:I48)),1)</f>
-        <v>rude</v>
+        <v>red</v>
       </c>
       <c r="P21" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O21," ",K21," ",M21," ",L21," ",N21,$A$2,$B$2)</f>
-        <v>"rude cat the is hotels",</v>
+        <v>"red cat the is hotels",</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T21" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I21:I48)),1)</f>
-        <v>light</v>
+        <v>huge</v>
       </c>
       <c r="U21" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2362,11 +2362,11 @@
       </c>
       <c r="X21" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T21," ", W21, " ",S21," ",U21," ",V21,$A$2,$B$2)</f>
-        <v>"light vicious a was corridor",</v>
+        <v>"huge vicious a was corridor",</v>
       </c>
       <c r="AA21" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I21:I48)),1)</f>
-        <v>quiet</v>
+        <v>odorous</v>
       </c>
       <c r="AB21" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AF21" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB21," ", AE21, " ",AA21," ",AC21," ",AD21,$A$2,$B$2)</f>
-        <v>"hotels the quiet are tired",</v>
+        <v>"hotels the odorous are tired",</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,18 +2419,18 @@
       </c>
       <c r="O22" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I22:I49)),1)</f>
-        <v>strong</v>
+        <v>red</v>
       </c>
       <c r="P22" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O22," ",K22," ",M22," ",L22," ",N22,$A$2,$B$2)</f>
-        <v>"strong coat the was cows",</v>
+        <v>"red coat the was cows",</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T22" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I22:I49)),1)</f>
-        <v>quiet</v>
+        <v>nice</v>
       </c>
       <c r="U22" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2446,11 +2446,11 @@
       </c>
       <c r="X22" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T22," ", W22, " ",S22," ",U22," ",V22,$A$2,$B$2)</f>
-        <v>"quiet sad a was dog",</v>
+        <v>"nice sad a was dog",</v>
       </c>
       <c r="AA22" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I22:I49)),1)</f>
-        <v>odorous</v>
+        <v>fat</v>
       </c>
       <c r="AB22" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="AF22" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB22," ", AE22, " ",AA22," ",AC22," ",AD22,$A$2,$B$2)</f>
-        <v>"hospitals the odorous are tiny",</v>
+        <v>"hospitals the fat are tiny",</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="O23" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I23:I50)),1)</f>
-        <v>rude</v>
+        <v>small</v>
       </c>
       <c r="P23" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O23," ",K23," ",M23," ",L23," ",N23,$A$2,$B$2)</f>
-        <v>"rude house the are statues",</v>
+        <v>"small house the are statues",</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>18</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="T24" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I24:I51)),1)</f>
-        <v>odorous</v>
+        <v>purple</v>
       </c>
       <c r="U24" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2614,11 +2614,11 @@
       </c>
       <c r="X24" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T24," ", W24, " ",S24," ",U24," ",V24,$A$2,$B$2)</f>
-        <v>"odorous sad a is bag",</v>
+        <v>"purple sad a is bag",</v>
       </c>
       <c r="AA24" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I24:I51)),1)</f>
-        <v>rude</v>
+        <v>huge</v>
       </c>
       <c r="AB24" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="AF24" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB24," ", AE24, " ",AA24," ",AC24," ",AD24,$A$2,$B$2)</f>
-        <v>"hospitals the rude are happy",</v>
+        <v>"hospitals the huge are happy",</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,18 +2671,18 @@
       </c>
       <c r="O25" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I25:I52)),1)</f>
-        <v>small</v>
+        <v>fat</v>
       </c>
       <c r="P25" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O25," ",K25," ",M25," ",L25," ",N25,$A$2,$B$2)</f>
-        <v>"small rabbit the is tables",</v>
+        <v>"fat rabbit the is tables",</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T25" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I25:I52)),1)</f>
-        <v>light</v>
+        <v>fat</v>
       </c>
       <c r="U25" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2698,11 +2698,11 @@
       </c>
       <c r="X25" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T25," ", W25, " ",S25," ",U25," ",V25,$A$2,$B$2)</f>
-        <v>"light weak a was village",</v>
+        <v>"fat weak a was village",</v>
       </c>
       <c r="AA25" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I25:I52)),1)</f>
-        <v>odorous</v>
+        <v>purple</v>
       </c>
       <c r="AB25" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="AF25" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB25," ", AE25, " ",AA25," ",AC25," ",AD25,$A$2,$B$2)</f>
-        <v>"boys the odorous are angry",</v>
+        <v>"boys the purple are angry",</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,18 +2755,18 @@
       </c>
       <c r="O26" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I26:I53)),1)</f>
-        <v>nice</v>
+        <v>quiet</v>
       </c>
       <c r="P26" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O26," ",K26," ",M26," ",L26," ",N26,$A$2,$B$2)</f>
-        <v>"nice cat the were dogs",</v>
+        <v>"quiet cat the were dogs",</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T26" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I26:I53)),1)</f>
-        <v>blue</v>
+        <v>fat</v>
       </c>
       <c r="U26" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="X26" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T26," ", W26, " ",S26," ",U26," ",V26,$A$2,$B$2)</f>
-        <v>"blue big a is rooom",</v>
+        <v>"fat big a is rooom",</v>
       </c>
       <c r="AA26" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I26:I53)),1)</f>
-        <v>small</v>
+        <v>purple</v>
       </c>
       <c r="AB26" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="AF26" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB26," ", AE26, " ",AA26," ",AC26," ",AD26,$A$2,$B$2)</f>
-        <v>"villages the small were happy",</v>
+        <v>"villages the purple were happy",</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="O27" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I27:I54)),1)</f>
-        <v>quiet</v>
+        <v>fat</v>
       </c>
       <c r="P27" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O27," ",K27," ",M27," ",L27," ",N27,$A$2,$B$2)</f>
-        <v>"quiet table the were villages",</v>
+        <v>"fat table the were villages",</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>18</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="AA27" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I27:I54)),1)</f>
-        <v>white</v>
+        <v>red</v>
       </c>
       <c r="AB27" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="AF27" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB27," ", AE27, " ",AA27," ",AC27," ",AD27,$A$2,$B$2)</f>
-        <v>"hotels the white were tiny",</v>
+        <v>"hotels the red were tiny",</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,18 +2923,18 @@
       </c>
       <c r="O28" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I28:I55)),1)</f>
-        <v>strong</v>
+        <v>rude</v>
       </c>
       <c r="P28" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O28," ",K28," ",M28," ",L28," ",N28,$A$2,$B$2)</f>
-        <v>"strong hotel the was boys",</v>
+        <v>"rude hotel the was boys",</v>
       </c>
       <c r="S28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T28" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I28:I55)),1)</f>
-        <v>blue</v>
+        <v>huge</v>
       </c>
       <c r="U28" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -2950,11 +2950,11 @@
       </c>
       <c r="X28" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T28," ", W28, " ",S28," ",U28," ",V28,$A$2,$B$2)</f>
-        <v>"blue boring a was plane",</v>
+        <v>"huge boring a was plane",</v>
       </c>
       <c r="AA28" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I28:I55)),1)</f>
-        <v>huge</v>
+        <v>nice</v>
       </c>
       <c r="AB28" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="AF28" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB28," ", AE28, " ",AA28," ",AC28," ",AD28,$A$2,$B$2)</f>
-        <v>"tables the huge are happy",</v>
+        <v>"tables the nice are happy",</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,18 +3007,18 @@
       </c>
       <c r="O29" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I29:I56)),1)</f>
-        <v>strong</v>
+        <v>blue</v>
       </c>
       <c r="P29" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O29," ",K29," ",M29," ",L29," ",N29,$A$2,$B$2)</f>
-        <v>"strong bag the was boys",</v>
+        <v>"blue bag the was boys",</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T29" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I29:I56)),1)</f>
-        <v>nice</v>
+        <v>blue</v>
       </c>
       <c r="U29" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3034,11 +3034,11 @@
       </c>
       <c r="X29" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T29," ", W29, " ",S29," ",U29," ",V29,$A$2,$B$2)</f>
-        <v>"nice big a was bird",</v>
+        <v>"blue big a was bird",</v>
       </c>
       <c r="AA29" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I29:I56)),1)</f>
-        <v>nice</v>
+        <v>rude</v>
       </c>
       <c r="AB29" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="AF29" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB29," ", AE29, " ",AA29," ",AC29," ",AD29,$A$2,$B$2)</f>
-        <v>"doctors the nice were boring",</v>
+        <v>"doctors the rude were boring",</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,18 +3090,18 @@
       </c>
       <c r="O30" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I30:I57)),1)</f>
-        <v>white</v>
+        <v>blue</v>
       </c>
       <c r="P30" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O30," ",K30," ",M30," ",L30," ",N30,$A$2,$B$2)</f>
-        <v>"white coat the is bags",</v>
+        <v>"blue coat the is bags",</v>
       </c>
       <c r="S30" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T30" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I30:I57)),1)</f>
-        <v>quiet</v>
+        <v>red</v>
       </c>
       <c r="U30" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3117,11 +3117,11 @@
       </c>
       <c r="X30" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T30," ", W30, " ",S30," ",U30," ",V30,$A$2,$B$2)</f>
-        <v>"quiet colorful a was night",</v>
+        <v>"red colorful a was night",</v>
       </c>
       <c r="AA30" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I30:I57)),1)</f>
-        <v>strong</v>
+        <v>red</v>
       </c>
       <c r="AB30" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="AF30" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB30," ", AE30, " ",AA30," ",AC30," ",AD30,$A$2,$B$2)</f>
-        <v>"hats the strong were boring",</v>
+        <v>"hats the red were boring",</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,18 +3173,18 @@
       </c>
       <c r="O31" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I31:I58)),1)</f>
-        <v>blue</v>
+        <v>rude</v>
       </c>
       <c r="P31" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O31," ",K31," ",M31," ",L31," ",N31,$A$2,$B$2)</f>
-        <v>"blue pig the were hats",</v>
+        <v>"rude pig the were hats",</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T31" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I31:I58)),1)</f>
-        <v>quiet</v>
+        <v>white</v>
       </c>
       <c r="U31" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="X31" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T31," ", W31, " ",S31," ",U31," ",V31,$A$2,$B$2)</f>
-        <v>"quiet angry a is rabbit",</v>
+        <v>"white angry a is rabbit",</v>
       </c>
       <c r="AA31" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I31:I58)),1)</f>
-        <v>strong</v>
+        <v>purple</v>
       </c>
       <c r="AB31" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AF31" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB31," ", AE31, " ",AA31," ",AC31," ",AD31,$A$2,$B$2)</f>
-        <v>"corridors the strong were heavy",</v>
+        <v>"corridors the purple were heavy",</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,18 +3256,18 @@
       </c>
       <c r="O32" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I32:I59)),1)</f>
-        <v>nice</v>
+        <v>red</v>
       </c>
       <c r="P32" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O32," ",K32," ",M32," ",L32," ",N32,$A$2,$B$2)</f>
-        <v>"nice teacher the were statues",</v>
+        <v>"red teacher the were statues",</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T32" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I32:I59)),1)</f>
-        <v>white</v>
+        <v>rude</v>
       </c>
       <c r="U32" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3283,11 +3283,11 @@
       </c>
       <c r="X32" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T32," ", W32, " ",S32," ",U32," ",V32,$A$2,$B$2)</f>
-        <v>"white stupid a is cow",</v>
+        <v>"rude stupid a is cow",</v>
       </c>
       <c r="AA32" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I32:I59)),1)</f>
-        <v>purple</v>
+        <v>white</v>
       </c>
       <c r="AB32" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="AF32" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB32," ", AE32, " ",AA32," ",AC32," ",AD32,$A$2,$B$2)</f>
-        <v>"hospitals the purple are weak",</v>
+        <v>"hospitals the white are weak",</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,18 +3339,18 @@
       </c>
       <c r="O33" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I33:I60)),1)</f>
-        <v>white</v>
+        <v>purple</v>
       </c>
       <c r="P33" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O33," ",K33," ",M33," ",L33," ",N33,$A$2,$B$2)</f>
-        <v>"white coat the is hospitals",</v>
+        <v>"purple coat the is hospitals",</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T33" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I33:I60)),1)</f>
-        <v>purple</v>
+        <v>blue</v>
       </c>
       <c r="U33" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3366,11 +3366,11 @@
       </c>
       <c r="X33" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T33," ", W33, " ",S33," ",U33," ",V33,$A$2,$B$2)</f>
-        <v>"purple kind a was coat",</v>
+        <v>"blue kind a was coat",</v>
       </c>
       <c r="AA33" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I33:I60)),1)</f>
-        <v>red</v>
+        <v>nice</v>
       </c>
       <c r="AB33" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="AF33" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB33," ", AE33, " ",AA33," ",AC33," ",AD33,$A$2,$B$2)</f>
-        <v>"horses the red were stupid",</v>
+        <v>"horses the nice were stupid",</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,18 +3422,18 @@
       </c>
       <c r="O34" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I34:I61)),1)</f>
-        <v>blue</v>
+        <v>nice</v>
       </c>
       <c r="P34" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O34," ",K34," ",M34," ",L34," ",N34,$A$2,$B$2)</f>
-        <v>"blue girl the is streets",</v>
+        <v>"nice girl the is streets",</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T34" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I34:I61)),1)</f>
-        <v>rude</v>
+        <v>nice</v>
       </c>
       <c r="U34" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="X34" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T34," ", W34, " ",S34," ",U34," ",V34,$A$2,$B$2)</f>
-        <v>"rude sad a is plane",</v>
+        <v>"nice sad a is plane",</v>
       </c>
       <c r="AA34" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I34:I61)),1)</f>
-        <v>purple</v>
+        <v>rude</v>
       </c>
       <c r="AB34" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="AF34" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB34," ", AE34, " ",AA34," ",AC34," ",AD34,$A$2,$B$2)</f>
-        <v>"statues the purple are stupid",</v>
+        <v>"statues the rude are stupid",</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,18 +3505,18 @@
       </c>
       <c r="O35" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I35:I62)),1)</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="P35" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O35," ",K35," ",M35," ",L35," ",N35,$A$2,$B$2)</f>
-        <v>"red horse the are dogs",</v>
+        <v>"blue horse the are dogs",</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>18</v>
       </c>
       <c r="T35" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I35:I62)),1)</f>
-        <v>white</v>
+        <v>purple</v>
       </c>
       <c r="U35" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3532,11 +3532,11 @@
       </c>
       <c r="X35" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T35," ", W35, " ",S35," ",U35," ",V35,$A$2,$B$2)</f>
-        <v>"white happy a was village",</v>
+        <v>"purple happy a was village",</v>
       </c>
       <c r="AA35" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I35:I62)),1)</f>
-        <v>blue</v>
+        <v>red</v>
       </c>
       <c r="AB35" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="AF35" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB35," ", AE35, " ",AA35," ",AC35," ",AD35,$A$2,$B$2)</f>
-        <v>"statues the blue are sad",</v>
+        <v>"statues the red are sad",</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="T36" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I36:I63)),1)</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="U36" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="X36" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T36," ", W36, " ",S36," ",U36," ",V36,$A$2,$B$2)</f>
-        <v>"red boring a was hospital",</v>
+        <v>"blue boring a was hospital",</v>
       </c>
       <c r="AA36" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I36:I63)),1)</f>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="T37" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I37:I64)),1)</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="U37" s="0" t="str">
         <f aca="false">INDEX(G$2:G$3,RANDBETWEEN(1,COUNTA(G$2:G$3)),1)</f>
@@ -3698,11 +3698,11 @@
       </c>
       <c r="X37" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,T37," ", W37, " ",S37," ",U37," ",V37,$A$2,$B$2)</f>
-        <v>"red stupid a was coat",</v>
+        <v>"blue stupid a was coat",</v>
       </c>
       <c r="AA37" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I37:I64)),1)</f>
-        <v>red</v>
+        <v>white</v>
       </c>
       <c r="AB37" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="AF37" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB37," ", AE37, " ",AA37," ",AC37," ",AD37,$A$2,$B$2)</f>
-        <v>"bags the red were boring",</v>
+        <v>"bags the white were boring",</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="O38" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I38:I65)),1)</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="P38" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O38," ",K38," ",M38," ",L38," ",N38,$A$2,$B$2)</f>
-        <v>"red corridor the was houses",</v>
+        <v>"blue corridor the was houses",</v>
       </c>
       <c r="S38" s="0" t="s">
         <v>18</v>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="AA38" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I38:I65)),1)</f>
-        <v>red</v>
+        <v>blue</v>
       </c>
       <c r="AB38" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29)),1)</f>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="AF38" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,AB38," ", AE38, " ",AA38," ",AC38," ",AD38,$A$2,$B$2)</f>
-        <v>"boys the red were boring",</v>
+        <v>"boys the blue were boring",</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,18 +3822,18 @@
       </c>
       <c r="K39" s="0" t="str">
         <f aca="false">INDEX(D$2:D$29,RANDBETWEEN(1,COUNTA(D$2:D$29)),1)</f>
-        <v>doctor</v>
+        <v>girl</v>
       </c>
       <c r="L39" s="0" t="str">
         <f aca="false">INDEX(G$2:G$5,RANDBETWEEN(1,COUNTA(G$2:G$5)),1)</f>
-        <v>are</v>
+        <v>were</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>24</v>
       </c>
       <c r="N39" s="0" t="str">
         <f aca="false">INDEX(E$2:E$29,RANDBETWEEN(1,COUNTA(E$2:E$29))*1)</f>
-        <v>coats</v>
+        <v>cats</v>
       </c>
       <c r="O39" s="0" t="str">
         <f aca="false">INDEX(I$2:I$29,RANDBETWEEN(1,COUNTA(I39:I66)),1)</f>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P39" s="0" t="str">
         <f aca="false">CONCATENATE($A$2,O39," ",K39," ",M39," ",L39," ",N39,$A$2,$B$2)</f>
-        <v>"blue doctor the are coats",</v>
+        <v>"blue girl the were cats",</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>18</v>
